--- a/biology/Médecine/Myélomère/Myélomère.xlsx
+++ b/biology/Médecine/Myélomère/Myélomère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My%C3%A9lom%C3%A8re</t>
+          <t>Myélomère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un myélomère représente un segment de la moelle spinale (ou moelle épinière) à partir duquel se détachent les racines ventrales, motrices et dorsales, sensitives, formant par la suite un nerf spinal mixte au niveau du foramen intervertébral, lequel se divise en un rameau dorsal et un autre ventral se dirigeant vers les organes ou tissus correspondants. Il s'agit d'un centre réflexe segmentaire synonyme d’arc réflexe. Ils composent la substance grise en se superposant. 
  Portail de la biologie   Portail de la médecine                    </t>
